--- a/data/Pcod Temp Growth experiment 2022-23 DATA.xlsx
+++ b/data/Pcod Temp Growth experiment 2022-23 DATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura.spencer\Work\pcod-juveniles-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura.spencer\Work\pcod-juveniles-2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B872484-8A8B-44F4-AAD4-F9186646D8F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D81DA5-2AE4-4673-B20B-6C1A4AFE95A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22308" windowHeight="9060" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6404,10 +6404,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="P105" sqref="P105"/>
+      <selection pane="bottomLeft" activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12545,7 +12545,7 @@
         <v>44966</v>
       </c>
       <c r="J114" s="68">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="K114" s="69">
         <v>11.45</v>
@@ -15163,7 +15163,7 @@
         <v>44967</v>
       </c>
       <c r="J161" s="10">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K161" s="28">
         <v>10.81</v>
